--- a/configs/battleBuffconfig.xlsx
+++ b/configs/battleBuffconfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SongOfBoat\B.O.A.T\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB9EA1E-86E0-46DF-B202-80A3C7852744}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006B7B6C-CE55-4153-B4E9-7755C2172232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="312" windowWidth="20268" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="20484" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>INT</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,140 +35,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Buff名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff初始层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff消散规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff标号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDescription</t>
+  </si>
+  <si>
+    <t>BuffIcon</t>
+  </si>
+  <si>
+    <t>BuffStartIndex</t>
+  </si>
+  <si>
+    <t>BuffIndex4</t>
+  </si>
+  <si>
+    <t>BuffIndex5</t>
+  </si>
+  <si>
+    <t>BuffName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消进攻，单体伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1消防御，单体护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTarget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击(主)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通防御(主)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff目标1是自身，2是敌方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二消攻击(伤害)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二消攻击(易伤)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消进攻，单体伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消进攻，单体易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff刷新规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRestart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BuffID</t>
-  </si>
-  <si>
-    <t>Buff名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff初始层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff消散规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff标号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffDescription</t>
-  </si>
-  <si>
-    <t>BuffIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffType</t>
-  </si>
-  <si>
-    <t>BuffStartIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffDestroy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffIndex1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIndex3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BuffIndex2</t>
-  </si>
-  <si>
-    <t>BuffIndex3</t>
-  </si>
-  <si>
-    <t>BuffIndex4</t>
-  </si>
-  <si>
-    <t>BuffIndex5</t>
-  </si>
-  <si>
-    <t>BuffName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消进攻，单体伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1消防御，单体护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2，1生命值2护盾值3初始回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>派发群体伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2消进攻，群体伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffTarget</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击(主)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通防御(主)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff目标1是自身，2是敌方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二消攻击(伤害)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>二消攻击(易伤)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消进攻，单体伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2消进攻，单体易伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff刷新规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffRestart</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,6 +253,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,53 +549,53 @@
     <col min="1" max="1" width="12.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="2" customWidth="1"/>
     <col min="5" max="14" width="12.77734375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -582,46 +603,46 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -676,10 +697,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
@@ -688,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5">
         <v>-1</v>
@@ -720,10 +741,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -732,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
@@ -764,10 +785,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -776,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>-1</v>
@@ -808,10 +829,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -820,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -851,14 +872,137 @@
       <c r="A8" s="2">
         <v>10005</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10006</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>10001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>